--- a/Lectures/Lecture 29/SpinWheel.xlsx
+++ b/Lectures/Lecture 29/SpinWheel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 29\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728F15E4-3C62-4158-8D08-4F96101AE130}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB91AF1-459C-41CE-8469-559AF183B054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7640" yWindow="1120" windowWidth="10550" windowHeight="12290" xr2:uid="{F0CC155E-5B37-D448-A530-96BFB57E2258}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{F0CC155E-5B37-D448-A530-96BFB57E2258}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D44C6CE-AE14-F043-9EA1-642C81A9FF29}">
   <dimension ref="A1:F47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N28" sqref="N28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -580,11 +580,11 @@
       </c>
       <c r="E6">
         <f ca="1">RAND()</f>
-        <v>0.4759378013904414</v>
+        <v>0.11850880423539323</v>
       </c>
       <c r="F6">
         <f ca="1">VLOOKUP(E6,CDF_Table,2)</f>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -600,10 +600,10 @@
       </c>
       <c r="E7">
         <f ca="1">RAND()</f>
-        <v>0.52900860887870826</v>
+        <v>0.25094728706992053</v>
       </c>
       <c r="F7">
-        <f t="shared" ref="F7:F47" ca="1" si="0">VLOOKUP(E7,CDF_Table,2)</f>
+        <f ca="1">VLOOKUP(E7,CDF_Table,2)</f>
         <v>10</v>
       </c>
     </row>
@@ -619,11 +619,11 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <f t="shared" ref="E8:E47" ca="1" si="1">RAND()</f>
-        <v>0.3774563046229219</v>
+        <f t="shared" ref="E8:E47" ca="1" si="0">RAND()</f>
+        <v>0.13831755712980986</v>
       </c>
       <c r="F8">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ref="F7:F47" ca="1" si="1">VLOOKUP(E8,CDF_Table,2)</f>
         <v>10</v>
       </c>
     </row>
@@ -640,32 +640,32 @@
         <v>100</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.19597344198653688</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.15242813185761062</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E10">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38425157646776309</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.14227521199855842</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E11">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.68071563553663261</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.4056163451998698E-2</v>
       </c>
       <c r="F11">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -674,14 +674,14 @@
       </c>
       <c r="B12">
         <f ca="1">AVERAGE(F6:F47)</f>
-        <v>22.38095238095238</v>
+        <v>14.523809523809524</v>
       </c>
       <c r="E12">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.35764325903343586</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.50513221525272956</v>
       </c>
       <c r="F12">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
@@ -691,44 +691,44 @@
       </c>
       <c r="B13">
         <f ca="1">STDEV(F6:F47)</f>
-        <v>29.451036157971846</v>
+        <v>20.506082494711347</v>
       </c>
       <c r="E13">
-        <f t="shared" ca="1" si="1"/>
-        <v>5.1677303663448249E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.96096328303912404</v>
       </c>
       <c r="F13">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.58022065083530971</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.31968977630973727</v>
       </c>
       <c r="F14">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.6826529326567927E-3</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.17434646608532001</v>
       </c>
       <c r="F15">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.754000665386376</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78477475141819741</v>
       </c>
       <c r="F16">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -741,12 +741,12 @@
         <v>22.5</v>
       </c>
       <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.36732240230822266</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.78033313593191367</v>
       </c>
       <c r="F17">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -758,12 +758,12 @@
         <v>893.75</v>
       </c>
       <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.61159489280436896</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81546459130209581</v>
       </c>
       <c r="F18">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -775,291 +775,291 @@
         <v>29.895651857753496</v>
       </c>
       <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.5804842506512213E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3134249860070123</v>
       </c>
       <c r="F19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.75379663492277527</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.1394598436209211E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.87753832941309773</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.8990857949617919E-3</v>
       </c>
       <c r="F21">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.99476608379378462</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.27379921451599543</v>
       </c>
       <c r="F22">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E23">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.38676341002605874</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13854969449114285</v>
       </c>
       <c r="F23">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E24">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.80326229384157677</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.87006916077112173</v>
       </c>
       <c r="F24">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E25">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.76906483741670117</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3449110038162374</v>
       </c>
       <c r="F25">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E26">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.61376258696315522</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.5313200241540974</v>
       </c>
       <c r="F26">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E27">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.21652341645069617</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.62619033912303057</v>
       </c>
       <c r="F27">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E28">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.41410252133022774</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.25978650562958172</v>
       </c>
       <c r="F28">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E29">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.44413557068054743</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.52308735769427139</v>
       </c>
       <c r="F29">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E30">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.18464101125125487</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.39470456795110687</v>
       </c>
       <c r="F30">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E31">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.53155441394011149</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>4.8344069935882472E-2</v>
       </c>
       <c r="F31">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E32">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.79461610885131528</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.43085317751585539</v>
       </c>
       <c r="F32">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E33">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.51954787908359201</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.751441335276644E-2</v>
       </c>
       <c r="F33">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E34">
-        <f t="shared" ca="1" si="1"/>
-        <v>8.3423164696503571E-2</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.68919977895834628</v>
       </c>
       <c r="F34">
-        <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E35">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.50187221531040582</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.10679827641734418</v>
       </c>
       <c r="F35">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E36">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.96757181174766593</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.37140965204537935</v>
       </c>
       <c r="F36">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E37">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.49726556209111861</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.42642579462147445</v>
       </c>
       <c r="F37">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E38">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.87594104392689309</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.85537307754033598</v>
       </c>
       <c r="F38">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E39">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.74081093315707858</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.13758774926609052</v>
       </c>
       <c r="F39">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E40">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.80035735795215801</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.73386768885695719</v>
       </c>
       <c r="F40">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E41">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72999163271468037</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.40784404723462309</v>
       </c>
       <c r="F41">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E42">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.4672784326988707</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.81135487140971119</v>
       </c>
       <c r="F42">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E43">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.21164629590307016</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.55435374575642826</v>
       </c>
       <c r="F43">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E44">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.33299829135223835</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.88131359895528694</v>
       </c>
       <c r="F44">
-        <f t="shared" ca="1" si="0"/>
-        <v>10</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>100</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E45">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.89777459748263566</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>7.2251679292571702E-2</v>
       </c>
       <c r="F45">
-        <f t="shared" ca="1" si="0"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E46">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.67114252340922997</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>8.9741726431196156E-3</v>
       </c>
       <c r="F46">
-        <f t="shared" ca="1" si="0"/>
-        <v>20</v>
+        <f t="shared" ca="1" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E47">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.67335286836202335</v>
+        <f t="shared" ca="1" si="0"/>
+        <v>0.75981228905949172</v>
       </c>
       <c r="F47">
-        <f t="shared" ca="1" si="0"/>
+        <f t="shared" ca="1" si="1"/>
         <v>20</v>
       </c>
     </row>

--- a/Lectures/Lecture 29/SpinWheel.xlsx
+++ b/Lectures/Lecture 29/SpinWheel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mario Documents\UNC\STOR 305\STOR305_WEBSITE\Lectures\Lecture 29\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCB91AF1-459C-41CE-8469-559AF183B054}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460E4AC7-6EBB-422E-9A41-19FC1A458B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{F0CC155E-5B37-D448-A530-96BFB57E2258}"/>
   </bookViews>
@@ -529,7 +529,7 @@
   <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -580,11 +580,11 @@
       </c>
       <c r="E6">
         <f ca="1">RAND()</f>
-        <v>0.11850880423539323</v>
+        <v>0.65280970223297352</v>
       </c>
       <c r="F6">
         <f ca="1">VLOOKUP(E6,CDF_Table,2)</f>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -600,11 +600,11 @@
       </c>
       <c r="E7">
         <f ca="1">RAND()</f>
-        <v>0.25094728706992053</v>
+        <v>0.91971183889484931</v>
       </c>
       <c r="F7">
         <f ca="1">VLOOKUP(E7,CDF_Table,2)</f>
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -620,10 +620,10 @@
       </c>
       <c r="E8">
         <f t="shared" ref="E8:E47" ca="1" si="0">RAND()</f>
-        <v>0.13831755712980986</v>
+        <v>0.47059356794523377</v>
       </c>
       <c r="F8">
-        <f t="shared" ref="F7:F47" ca="1" si="1">VLOOKUP(E8,CDF_Table,2)</f>
+        <f t="shared" ref="F8:F47" ca="1" si="1">VLOOKUP(E8,CDF_Table,2)</f>
         <v>10</v>
       </c>
     </row>
@@ -641,7 +641,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15242813185761062</v>
+        <v>0.46946044859894598</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="1"/>
@@ -651,17 +651,17 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14227521199855842</v>
+        <v>0.95429454126086555</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4.4056163451998698E-2</v>
+        <v>7.8553057938872684E-2</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="1"/>
@@ -674,15 +674,15 @@
       </c>
       <c r="B12">
         <f ca="1">AVERAGE(F6:F47)</f>
-        <v>14.523809523809524</v>
+        <v>24.523809523809526</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.50513221525272956</v>
+        <v>0.81718233919148364</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -691,21 +691,21 @@
       </c>
       <c r="B13">
         <f ca="1">STDEV(F6:F47)</f>
-        <v>20.506082494711347</v>
+        <v>31.715379123359753</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96096328303912404</v>
+        <v>0.77290844040577489</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.31968977630973727</v>
+        <v>0.56267146993887229</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="1"/>
@@ -715,7 +715,7 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.17434646608532001</v>
+        <v>0.37802137730478258</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="1"/>
@@ -725,11 +725,11 @@
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78477475141819741</v>
+        <v>0.9322502263251492</v>
       </c>
       <c r="F16">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.35">
@@ -742,11 +742,11 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.78033313593191367</v>
+        <v>0.47668713944652341</v>
       </c>
       <c r="F17">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
@@ -759,11 +759,11 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81546459130209581</v>
+        <v>0.87679177241226847</v>
       </c>
       <c r="F18">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
@@ -776,37 +776,37 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3134249860070123</v>
+        <v>0.90655393462519329</v>
       </c>
       <c r="F19">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>7.1394598436209211E-2</v>
+        <v>0.55893342309302541</v>
       </c>
       <c r="F20">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>8.8990857949617919E-3</v>
+        <v>0.19868813319381107</v>
       </c>
       <c r="F21">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>0.27379921451599543</v>
+        <v>0.44995975254556853</v>
       </c>
       <c r="F22">
         <f t="shared" ca="1" si="1"/>
@@ -816,27 +816,27 @@
     <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13854969449114285</v>
+        <v>0.72228806831003978</v>
       </c>
       <c r="F23">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>0.87006916077112173</v>
+        <v>0.12341233378803051</v>
       </c>
       <c r="F24">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3449110038162374</v>
+        <v>0.20103514093746355</v>
       </c>
       <c r="F25">
         <f t="shared" ca="1" si="1"/>
@@ -846,7 +846,7 @@
     <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5313200241540974</v>
+        <v>0.37018065545888312</v>
       </c>
       <c r="F26">
         <f t="shared" ca="1" si="1"/>
@@ -856,7 +856,7 @@
     <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>0.62619033912303057</v>
+        <v>0.76219333570833314</v>
       </c>
       <c r="F27">
         <f t="shared" ca="1" si="1"/>
@@ -866,17 +866,17 @@
     <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>0.25978650562958172</v>
+        <v>4.7355571902402138E-2</v>
       </c>
       <c r="F28">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>0.52308735769427139</v>
+        <v>0.30375164789110776</v>
       </c>
       <c r="F29">
         <f t="shared" ca="1" si="1"/>
@@ -886,7 +886,7 @@
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>0.39470456795110687</v>
+        <v>0.5236014652939458</v>
       </c>
       <c r="F30">
         <f t="shared" ca="1" si="1"/>
@@ -896,107 +896,107 @@
     <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4.8344069935882472E-2</v>
+        <v>0.2929867740625246</v>
       </c>
       <c r="F31">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>0.43085317751585539</v>
+        <v>0.88609133322115163</v>
       </c>
       <c r="F32">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>8.751441335276644E-2</v>
+        <v>0.7157668508419196</v>
       </c>
       <c r="F33">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68919977895834628</v>
+        <v>0.3947236147606592</v>
       </c>
       <c r="F34">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>0.10679827641734418</v>
+        <v>0.24285971960803476</v>
       </c>
       <c r="F35">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>0.37140965204537935</v>
+        <v>0.85054088089018975</v>
       </c>
       <c r="F36">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>0.42642579462147445</v>
+        <v>0.82587709437776391</v>
       </c>
       <c r="F37">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>0.85537307754033598</v>
+        <v>6.9586932836635973E-2</v>
       </c>
       <c r="F38">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>0.13758774926609052</v>
+        <v>0.6881343136066248</v>
       </c>
       <c r="F39">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>0.73386768885695719</v>
+        <v>0.37647348140214865</v>
       </c>
       <c r="F40">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>0.40784404723462309</v>
+        <v>0.3687194630155165</v>
       </c>
       <c r="F41">
         <f t="shared" ca="1" si="1"/>
@@ -1006,61 +1006,61 @@
     <row r="42" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81135487140971119</v>
+        <v>0.25824830667643839</v>
       </c>
       <c r="F42">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>0.55435374575642826</v>
+        <v>0.69361861277829961</v>
       </c>
       <c r="F43">
         <f t="shared" ca="1" si="1"/>
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>0.88131359895528694</v>
+        <v>0.56386648159088926</v>
       </c>
       <c r="F44">
         <f t="shared" ca="1" si="1"/>
-        <v>100</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>7.2251679292571702E-2</v>
+        <v>0.15043728978382565</v>
       </c>
       <c r="F45">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>8.9741726431196156E-3</v>
+        <v>0.72402693805782348</v>
       </c>
       <c r="F46">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" spans="5:6" x14ac:dyDescent="0.35">
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>0.75981228905949172</v>
+        <v>0.54992829409773514</v>
       </c>
       <c r="F47">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
